--- a/Output & Answers.xlsx
+++ b/Output & Answers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A41143-4BAC-4890-9381-56C0E336A1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291B6F4D-67A9-4AA9-A470-FDF22154452A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="184">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -1974,10 +1974,151 @@
     <t>Lo</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>to setup</t>
+  </si>
+  <si>
+    <t>clear-all</t>
+  </si>
+  <si>
+    <t>ask patches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if random-float 100 &lt; density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [ set pcolor green ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if distancexy (xcor-object1 * 50) (ycor-object1 * 50) &lt; Object1Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [ set pcolor violet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if distancexy (xcor-object2 * 50) (ycor-object2 * 50) &lt; Object2Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [ set pcolor magenta]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t>create-turtles number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [ set color white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    setxy random-xcor random-ycor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        set size 4]</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>to go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  P3</t>
+  </si>
+  <si>
+    <t>to P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ifelse pcolor = green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   set pcolor black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   set color orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   forward 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    P1]</t>
+  </si>
+  <si>
+    <t>to P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fd 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  right random 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  left random 50</t>
+  </si>
+  <si>
+    <t>to P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ifelse pcolor = black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    set pcolor green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    set color white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rt random 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    fd 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    P3</t>
+  </si>
+  <si>
+    <t>to P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  rt random 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  fd 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if pcolor != black</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [ P4 ]</t>
+  </si>
+  <si>
+    <t>to P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if pcolor != green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [P2 P5]</t>
   </si>
 </sst>
 </file>
@@ -3149,9 +3290,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3161,6 +3321,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,31 +3345,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3562,9 +3703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1860351</xdr:colOff>
+      <xdr:colOff>1863526</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>372</xdr:rowOff>
+      <xdr:rowOff>35297</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4393,9 +4534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>9922</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:colOff>16272</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4430,50 +4571,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>912812</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9922</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177006</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A525D4B-1C8B-44F0-84EE-ED44B7DFC74F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="27414140" y="2202656"/>
-          <a:ext cx="4187031" cy="3848100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
@@ -4483,7 +4580,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>9922</xdr:rowOff>
+      <xdr:rowOff>16272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4499,7 +4596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4519,22 +4616,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9921</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
+      <xdr:colOff>14884</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>29766</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168671</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1CDE26-AEDB-4778-8708-358919E9473E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A0AAC3-B177-477E-B6E8-72AE36D4A60E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26149103" y="2217539"/>
+          <a:ext cx="3943944" cy="4018359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>226416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7297BC3D-0991-4A8C-8C0C-5530FC4B730A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4550,8 +4691,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27433984" y="7421563"/>
-          <a:ext cx="4177110" cy="4127500"/>
+          <a:off x="26134219" y="7500937"/>
+          <a:ext cx="3958828" cy="4018359"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4562,23 +4703,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2797967</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>982264</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>36114</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
+      <xdr:rowOff>14883</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E05CB2-EE71-4FF5-AC85-28B02851EDED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DFC3CC-4200-45BE-BE69-B157A89FC816}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4594,8 +4735,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18940859" y="15716250"/>
-          <a:ext cx="4147343" cy="4127500"/>
+          <a:off x="18052850" y="15716250"/>
+          <a:ext cx="4003477" cy="4033242"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4607,22 +4748,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>9921</xdr:colOff>
+      <xdr:colOff>14483</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>9922</xdr:rowOff>
+      <xdr:rowOff>16272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>29765</xdr:colOff>
+      <xdr:colOff>16271</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>19844</xdr:rowOff>
+      <xdr:rowOff>13097</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02FF93F-C56D-40E8-8A30-F0BFBE1BA009}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4CA9EA3-EEFE-4E63-AAF6-D1FB98CEE082}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,8 +4779,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="27433984" y="15726172"/>
-          <a:ext cx="4177109" cy="4117578"/>
+          <a:off x="26198311" y="15752366"/>
+          <a:ext cx="3977285" cy="4101306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>16273</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>948928</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>19844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83900770-386E-4E4A-AB47-364ED30DCCC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18113773" y="24368125"/>
+          <a:ext cx="3945730" cy="4127500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>16272</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>16273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16272</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>32941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E80EE43E-7BC9-4ADE-8AA9-A57344232B66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26200100" y="24384398"/>
+          <a:ext cx="3975497" cy="4121149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4916,44 +5145,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="43.1796875" customWidth="1"/>
-    <col min="6" max="6" width="74.1796875" customWidth="1"/>
-    <col min="7" max="7" width="43.54296875" customWidth="1"/>
-    <col min="8" max="8" width="42.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
-    <col min="10" max="10" width="15.7265625" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" customWidth="1"/>
-    <col min="14" max="15" width="15.7265625" customWidth="1"/>
-    <col min="16" max="16" width="13.1796875" customWidth="1"/>
-    <col min="17" max="17" width="15.453125" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" customWidth="1"/>
-    <col min="19" max="19" width="15.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.54296875" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" style="32" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" customWidth="1"/>
-    <col min="23" max="23" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" customWidth="1"/>
+    <col min="6" max="6" width="74.140625" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="32" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="19.7109375" customWidth="1"/>
     <col min="24" max="24" width="42" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.26953125" customWidth="1"/>
-    <col min="26" max="26" width="18.7265625" customWidth="1"/>
-    <col min="27" max="28" width="9.1796875" style="6"/>
-    <col min="29" max="29" width="16.54296875" style="6" customWidth="1"/>
-    <col min="30" max="30" width="19.453125" style="6" customWidth="1"/>
-    <col min="31" max="34" width="9.1796875" style="6"/>
+    <col min="25" max="25" width="16.28515625" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="6"/>
+    <col min="29" max="29" width="16.5703125" style="6" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="6" customWidth="1"/>
+    <col min="31" max="34" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4967,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:36" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="91" t="s">
         <v>133</v>
       </c>
@@ -4985,7 +5214,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:36" ht="26" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:36" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5003,7 +5232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -5019,12 +5248,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -5035,7 +5264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="U7"/>
       <c r="W7" s="32"/>
       <c r="X7"/>
@@ -5045,7 +5274,7 @@
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
     </row>
-    <row r="8" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="92" t="s">
         <v>24</v>
       </c>
@@ -5056,28 +5285,28 @@
         <v>112</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="259" t="s">
+      <c r="I8" s="254" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="259"/>
-      <c r="R8" s="259"/>
-      <c r="S8" s="259"/>
-      <c r="T8" s="259"/>
-      <c r="U8" s="259"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="254"/>
+      <c r="N8" s="254"/>
+      <c r="O8" s="254"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="254"/>
+      <c r="R8" s="254"/>
+      <c r="S8" s="254"/>
+      <c r="T8" s="254"/>
+      <c r="U8" s="254"/>
       <c r="V8" s="40"/>
       <c r="W8" s="113"/>
-      <c r="X8" s="253" t="s">
+      <c r="X8" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="Y8" s="254"/>
-      <c r="Z8" s="255"/>
+      <c r="Y8" s="245"/>
+      <c r="Z8" s="246"/>
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AD8" s="66"/>
@@ -5086,7 +5315,7 @@
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
     </row>
-    <row r="9" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="96" t="s">
         <v>25</v>
       </c>
@@ -5122,8 +5351,10 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
     </row>
-    <row r="10" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="16"/>
+    <row r="10" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -5155,8 +5386,10 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
     </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -5190,8 +5423,10 @@
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
     </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -5223,8 +5458,10 @@
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
     </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5256,8 +5493,10 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
@@ -5289,8 +5528,10 @@
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
     </row>
-    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -5322,8 +5563,10 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
     </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -5355,8 +5598,10 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
     </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
@@ -5386,8 +5631,10 @@
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
     </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
@@ -5417,8 +5664,10 @@
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
     </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -5448,7 +5697,7 @@
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
     </row>
-    <row r="20" spans="1:36" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:36" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5480,8 +5729,10 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
     </row>
-    <row r="21" spans="1:36" ht="21" x14ac:dyDescent="0.5">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:36" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
@@ -5512,7 +5763,7 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
     </row>
-    <row r="22" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5547,7 +5798,7 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
     </row>
-    <row r="23" spans="1:36" ht="21" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:36" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5579,7 +5830,7 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
     </row>
-    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5611,8 +5862,10 @@
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -5643,8 +5896,10 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -5675,8 +5930,10 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -5693,13 +5950,13 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="258" t="s">
+      <c r="Q27" s="250" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="258"/>
-      <c r="S27" s="258"/>
-      <c r="T27" s="258"/>
-      <c r="U27" s="258"/>
+      <c r="R27" s="250"/>
+      <c r="S27" s="250"/>
+      <c r="T27" s="250"/>
+      <c r="U27" s="250"/>
       <c r="V27" s="2"/>
       <c r="W27" s="43"/>
       <c r="X27" s="22"/>
@@ -5711,8 +5968,10 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
@@ -5755,8 +6014,10 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -5787,7 +6048,7 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -5819,8 +6080,10 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
       <c r="D31" s="16"/>
@@ -5829,21 +6092,21 @@
       <c r="H31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="260" t="s">
+      <c r="I31" s="255" t="s">
         <v>124</v>
       </c>
-      <c r="J31" s="260"/>
-      <c r="K31" s="260"/>
-      <c r="L31" s="260"/>
-      <c r="M31" s="260"/>
-      <c r="N31" s="260"/>
-      <c r="O31" s="260"/>
-      <c r="P31" s="260"/>
-      <c r="Q31" s="260"/>
-      <c r="R31" s="260"/>
-      <c r="S31" s="260"/>
-      <c r="T31" s="260"/>
-      <c r="U31" s="260"/>
+      <c r="J31" s="255"/>
+      <c r="K31" s="255"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="255"/>
+      <c r="N31" s="255"/>
+      <c r="O31" s="255"/>
+      <c r="P31" s="255"/>
+      <c r="Q31" s="255"/>
+      <c r="R31" s="255"/>
+      <c r="S31" s="255"/>
+      <c r="T31" s="255"/>
+      <c r="U31" s="255"/>
       <c r="V31" s="2"/>
       <c r="W31" s="43"/>
       <c r="X31" s="71"/>
@@ -5855,8 +6118,10 @@
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="16"/>
@@ -5893,8 +6158,10 @@
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="16"/>
@@ -5927,8 +6194,10 @@
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
     </row>
-    <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
@@ -5959,8 +6228,10 @@
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
     </row>
-    <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
@@ -5991,7 +6262,7 @@
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
     </row>
-    <row r="36" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -6023,8 +6294,10 @@
       <c r="AI36" s="6"/>
       <c r="AJ36" s="6"/>
     </row>
-    <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16"/>
@@ -6055,8 +6328,10 @@
       <c r="AI37" s="6"/>
       <c r="AJ37" s="6"/>
     </row>
-    <row r="38" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16"/>
@@ -6087,8 +6362,10 @@
       <c r="AI38" s="6"/>
       <c r="AJ38" s="6"/>
     </row>
-    <row r="39" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -6119,8 +6396,10 @@
       <c r="AI39" s="6"/>
       <c r="AJ39" s="6"/>
     </row>
-    <row r="40" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
       <c r="D40" s="16"/>
@@ -6151,8 +6430,10 @@
       <c r="AI40" s="6"/>
       <c r="AJ40" s="6"/>
     </row>
-    <row r="41" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
       <c r="D41" s="16"/>
@@ -6183,8 +6464,10 @@
       <c r="AI41" s="6"/>
       <c r="AJ41" s="6"/>
     </row>
-    <row r="42" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
       <c r="D42" s="16"/>
@@ -6215,8 +6498,10 @@
       <c r="AI42" s="6"/>
       <c r="AJ42" s="6"/>
     </row>
-    <row r="43" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -6247,8 +6532,10 @@
       <c r="AI43" s="6"/>
       <c r="AJ43" s="6"/>
     </row>
-    <row r="44" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -6279,8 +6566,10 @@
       <c r="AI44" s="6"/>
       <c r="AJ44" s="6"/>
     </row>
-    <row r="45" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
       <c r="D45" s="16"/>
@@ -6311,8 +6600,10 @@
       <c r="AI45" s="6"/>
       <c r="AJ45" s="6"/>
     </row>
-    <row r="46" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="16"/>
+    <row r="46" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="16"/>
@@ -6343,8 +6634,10 @@
       <c r="AI46" s="6"/>
       <c r="AJ46" s="6"/>
     </row>
-    <row r="47" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
       <c r="D47" s="16"/>
@@ -6375,7 +6668,7 @@
       <c r="AI47" s="6"/>
       <c r="AJ47" s="6"/>
     </row>
-    <row r="48" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -6407,8 +6700,10 @@
       <c r="AI48" s="6"/>
       <c r="AJ48" s="6"/>
     </row>
-    <row r="49" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
       <c r="D49" s="16"/>
@@ -6439,8 +6734,10 @@
       <c r="AI49" s="6"/>
       <c r="AJ49" s="6"/>
     </row>
-    <row r="50" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
@@ -6457,13 +6754,13 @@
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
-      <c r="Q50" s="258" t="s">
+      <c r="Q50" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="R50" s="258"/>
-      <c r="S50" s="258"/>
-      <c r="T50" s="258"/>
-      <c r="U50" s="258"/>
+      <c r="R50" s="250"/>
+      <c r="S50" s="250"/>
+      <c r="T50" s="250"/>
+      <c r="U50" s="250"/>
       <c r="V50" s="2"/>
       <c r="W50" s="43"/>
       <c r="X50" s="71"/>
@@ -6475,8 +6772,10 @@
       <c r="AI50" s="6"/>
       <c r="AJ50" s="6"/>
     </row>
-    <row r="51" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="16"/>
+    <row r="51" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
@@ -6519,8 +6818,10 @@
       <c r="AI51" s="6"/>
       <c r="AJ51" s="6"/>
     </row>
-    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A52" s="16"/>
+    <row r="52" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
@@ -6551,8 +6852,10 @@
       <c r="AI52" s="6"/>
       <c r="AJ52" s="6"/>
     </row>
-    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
@@ -6583,7 +6886,7 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
     </row>
-    <row r="54" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -6594,13 +6897,13 @@
       <c r="I54" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="J54" s="244" t="s">
+      <c r="J54" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="244"/>
-      <c r="L54" s="244"/>
-      <c r="M54" s="244"/>
-      <c r="N54" s="245"/>
+      <c r="K54" s="251"/>
+      <c r="L54" s="251"/>
+      <c r="M54" s="251"/>
+      <c r="N54" s="252"/>
       <c r="O54" s="52"/>
       <c r="P54" s="6"/>
       <c r="Q54" s="124" t="s">
@@ -6625,8 +6928,10 @@
       <c r="AJ54" s="6"/>
       <c r="AK54" s="6"/>
     </row>
-    <row r="55" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
       <c r="D55" s="16"/>
@@ -6648,7 +6953,7 @@
       <c r="S55" s="109"/>
       <c r="T55" s="2"/>
       <c r="U55" s="133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V55" s="109"/>
       <c r="W55" s="48"/>
@@ -6663,8 +6968,10 @@
       <c r="AJ55" s="6"/>
       <c r="AK55" s="6"/>
     </row>
-    <row r="56" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -6707,8 +7014,10 @@
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6"/>
     </row>
-    <row r="57" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="16"/>
+    <row r="57" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
       <c r="D57" s="16"/>
@@ -6733,9 +7042,7 @@
       <c r="R57" s="117"/>
       <c r="S57" s="109"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="137" t="s">
-        <v>135</v>
-      </c>
+      <c r="U57" s="137"/>
       <c r="V57" s="109"/>
       <c r="W57" s="48"/>
       <c r="X57" s="22"/>
@@ -6749,8 +7056,10 @@
       <c r="AJ57" s="6"/>
       <c r="AK57" s="6"/>
     </row>
-    <row r="58" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
       <c r="D58" s="16"/>
@@ -6773,9 +7082,7 @@
       <c r="R58" s="117"/>
       <c r="S58" s="109"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="137" t="s">
-        <v>135</v>
-      </c>
+      <c r="U58" s="137"/>
       <c r="V58" s="109"/>
       <c r="W58" s="48"/>
       <c r="X58" s="22"/>
@@ -6789,8 +7096,10 @@
       <c r="AJ58" s="6"/>
       <c r="AK58" s="6"/>
     </row>
-    <row r="59" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
       <c r="D59" s="16"/>
@@ -6823,8 +7132,10 @@
       <c r="AJ59" s="6"/>
       <c r="AK59" s="6"/>
     </row>
-    <row r="60" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A60" s="16"/>
+    <row r="60" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -6857,8 +7168,10 @@
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
     </row>
-    <row r="61" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="16"/>
+    <row r="61" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="16"/>
@@ -6901,8 +7214,10 @@
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
     </row>
-    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A62" s="16"/>
+    <row r="62" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -6933,8 +7248,10 @@
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
     </row>
-    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A63" s="16"/>
+    <row r="63" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
       <c r="D63" s="16"/>
@@ -6965,8 +7282,10 @@
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
     </row>
-    <row r="64" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A64" s="16"/>
+    <row r="64" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -6975,21 +7294,21 @@
       <c r="H64" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="260" t="s">
+      <c r="I64" s="255" t="s">
         <v>126</v>
       </c>
-      <c r="J64" s="260"/>
-      <c r="K64" s="260"/>
-      <c r="L64" s="260"/>
-      <c r="M64" s="260"/>
-      <c r="N64" s="260"/>
-      <c r="O64" s="260"/>
-      <c r="P64" s="260"/>
-      <c r="Q64" s="260"/>
-      <c r="R64" s="260"/>
-      <c r="S64" s="260"/>
-      <c r="T64" s="260"/>
-      <c r="U64" s="260"/>
+      <c r="J64" s="255"/>
+      <c r="K64" s="255"/>
+      <c r="L64" s="255"/>
+      <c r="M64" s="255"/>
+      <c r="N64" s="255"/>
+      <c r="O64" s="255"/>
+      <c r="P64" s="255"/>
+      <c r="Q64" s="255"/>
+      <c r="R64" s="255"/>
+      <c r="S64" s="255"/>
+      <c r="T64" s="255"/>
+      <c r="U64" s="255"/>
       <c r="V64" s="48"/>
       <c r="W64" s="49"/>
       <c r="X64" s="22"/>
@@ -7004,8 +7323,10 @@
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
     </row>
-    <row r="65" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="16"/>
+    <row r="65" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
       <c r="D65" s="16"/>
@@ -7042,8 +7363,10 @@
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
     </row>
-    <row r="66" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A66" s="16"/>
+    <row r="66" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -7074,8 +7397,10 @@
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
     </row>
-    <row r="67" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A67" s="16"/>
+    <row r="67" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
@@ -7106,7 +7431,7 @@
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
     </row>
-    <row r="68" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -7138,8 +7463,10 @@
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
     </row>
-    <row r="69" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A69" s="16"/>
+    <row r="69" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
@@ -7170,8 +7497,10 @@
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
     </row>
-    <row r="70" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A70" s="16"/>
+    <row r="70" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -7202,8 +7531,10 @@
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
     </row>
-    <row r="71" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A71" s="16"/>
+    <row r="71" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>178</v>
+      </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
@@ -7234,8 +7565,10 @@
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
     </row>
-    <row r="72" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="16"/>
+    <row r="72" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>179</v>
+      </c>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -7266,8 +7599,10 @@
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
     </row>
-    <row r="73" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
+    <row r="73" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
@@ -7301,8 +7636,10 @@
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
     </row>
-    <row r="74" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A74" s="16"/>
+    <row r="74" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -7333,7 +7670,7 @@
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
     </row>
-    <row r="75" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -7370,8 +7707,10 @@
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
     </row>
-    <row r="76" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="16"/>
+    <row r="76" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>181</v>
+      </c>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -7402,8 +7741,10 @@
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
     </row>
-    <row r="77" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A77" s="16"/>
+    <row r="77" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
@@ -7436,8 +7777,10 @@
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
     </row>
-    <row r="78" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A78" s="16"/>
+    <row r="78" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>183</v>
+      </c>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -7471,8 +7814,10 @@
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
     </row>
-    <row r="79" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A79" s="16"/>
+    <row r="79" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -7504,7 +7849,7 @@
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
     </row>
-    <row r="80" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -7537,7 +7882,7 @@
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
     </row>
-    <row r="81" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -7570,7 +7915,7 @@
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
     </row>
-    <row r="82" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -7603,7 +7948,7 @@
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
     </row>
-    <row r="83" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -7621,13 +7966,13 @@
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
-      <c r="Q83" s="243" t="s">
+      <c r="Q83" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="R83" s="243"/>
-      <c r="S83" s="243"/>
-      <c r="T83" s="243"/>
-      <c r="U83" s="243"/>
+      <c r="R83" s="249"/>
+      <c r="S83" s="249"/>
+      <c r="T83" s="249"/>
+      <c r="U83" s="249"/>
       <c r="V83" s="6"/>
       <c r="W83" s="7"/>
       <c r="X83" s="71"/>
@@ -7640,7 +7985,7 @@
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
     </row>
-    <row r="84" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -7685,7 +8030,7 @@
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
     </row>
-    <row r="85" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -7718,7 +8063,7 @@
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
     </row>
-    <row r="86" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -7753,7 +8098,7 @@
       <c r="AI86" s="6"/>
       <c r="AJ86" s="6"/>
     </row>
-    <row r="87" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -7764,24 +8109,24 @@
       <c r="I87" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="J87" s="244" t="s">
+      <c r="J87" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="K87" s="244"/>
-      <c r="L87" s="244"/>
-      <c r="M87" s="244"/>
-      <c r="N87" s="245"/>
+      <c r="K87" s="251"/>
+      <c r="L87" s="251"/>
+      <c r="M87" s="251"/>
+      <c r="N87" s="252"/>
       <c r="O87" s="52"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="R87" s="246" t="s">
+      <c r="R87" s="253" t="s">
         <v>41</v>
       </c>
-      <c r="S87" s="246"/>
-      <c r="T87" s="246"/>
-      <c r="U87" s="246"/>
+      <c r="S87" s="253"/>
+      <c r="T87" s="253"/>
+      <c r="U87" s="253"/>
       <c r="V87" s="41"/>
       <c r="W87" s="43"/>
       <c r="X87" s="71"/>
@@ -7794,7 +8139,7 @@
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
     </row>
-    <row r="88" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -7831,7 +8176,7 @@
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
     </row>
-    <row r="89" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -7869,7 +8214,7 @@
       <c r="AI89" s="6"/>
       <c r="AJ89" s="6"/>
     </row>
-    <row r="90" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -7903,7 +8248,7 @@
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
     </row>
-    <row r="91" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="16"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -7956,7 +8301,7 @@
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
     </row>
-    <row r="92" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -7993,7 +8338,7 @@
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
     </row>
-    <row r="93" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -8029,11 +8374,11 @@
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
     </row>
-    <row r="94" spans="1:36" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
-      <c r="D94" s="261"/>
+      <c r="D94" s="243"/>
       <c r="F94" s="22"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -8061,11 +8406,11 @@
       <c r="AB94"/>
       <c r="AC94" s="14"/>
     </row>
-    <row r="95" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
-      <c r="D95" s="261"/>
+      <c r="D95" s="243"/>
       <c r="F95" s="22"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -8104,11 +8449,11 @@
       <c r="AC95" s="14"/>
       <c r="AD95" s="65"/>
     </row>
-    <row r="96" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
-      <c r="D96" s="261"/>
+      <c r="D96" s="243"/>
       <c r="F96" s="22"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -8135,11 +8480,11 @@
       <c r="AC96" s="14"/>
       <c r="AD96" s="65"/>
     </row>
-    <row r="97" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
-      <c r="D97" s="261"/>
+      <c r="D97" s="243"/>
       <c r="F97" s="22"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -8166,29 +8511,29 @@
       <c r="AC97" s="14"/>
       <c r="AD97" s="65"/>
     </row>
-    <row r="98" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
-      <c r="D98" s="261"/>
+      <c r="D98" s="243"/>
       <c r="F98" s="22"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-      <c r="I98" s="260" t="s">
+      <c r="I98" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="J98" s="260"/>
-      <c r="K98" s="260"/>
-      <c r="L98" s="260"/>
-      <c r="M98" s="260"/>
-      <c r="N98" s="260"/>
-      <c r="O98" s="260"/>
-      <c r="P98" s="260"/>
-      <c r="Q98" s="260"/>
-      <c r="R98" s="260"/>
-      <c r="S98" s="260"/>
-      <c r="T98" s="260"/>
-      <c r="U98" s="260"/>
+      <c r="J98" s="255"/>
+      <c r="K98" s="255"/>
+      <c r="L98" s="255"/>
+      <c r="M98" s="255"/>
+      <c r="N98" s="255"/>
+      <c r="O98" s="255"/>
+      <c r="P98" s="255"/>
+      <c r="Q98" s="255"/>
+      <c r="R98" s="255"/>
+      <c r="S98" s="255"/>
+      <c r="T98" s="255"/>
+      <c r="U98" s="255"/>
       <c r="V98" s="150"/>
       <c r="W98" s="43"/>
       <c r="X98" s="86"/>
@@ -8199,11 +8544,11 @@
       <c r="AC98" s="14"/>
       <c r="AD98" s="65"/>
     </row>
-    <row r="99" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
-      <c r="D99" s="261"/>
+      <c r="D99" s="243"/>
       <c r="F99" s="22"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -8234,7 +8579,7 @@
       <c r="AC99" s="14"/>
       <c r="AD99" s="65"/>
     </row>
-    <row r="100" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="116"/>
       <c r="D100" s="2"/>
       <c r="F100" s="22"/>
@@ -8263,7 +8608,7 @@
       <c r="AC100" s="14"/>
       <c r="AD100" s="65"/>
     </row>
-    <row r="101" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="116"/>
       <c r="D101" s="2"/>
       <c r="F101" s="22"/>
@@ -8292,7 +8637,7 @@
       <c r="AC101" s="14"/>
       <c r="AD101" s="65"/>
     </row>
-    <row r="102" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="116"/>
       <c r="D102" s="2"/>
       <c r="F102" s="22"/>
@@ -8321,7 +8666,7 @@
       <c r="AC102" s="14"/>
       <c r="AD102" s="65"/>
     </row>
-    <row r="103" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="116"/>
       <c r="D103" s="2"/>
       <c r="F103" s="22"/>
@@ -8352,7 +8697,7 @@
       <c r="AC103" s="14"/>
       <c r="AD103" s="65"/>
     </row>
-    <row r="104" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="116"/>
       <c r="D104" s="2"/>
       <c r="F104" s="22"/>
@@ -8381,7 +8726,7 @@
       <c r="AC104" s="14"/>
       <c r="AD104" s="65"/>
     </row>
-    <row r="105" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="116"/>
       <c r="D105" s="2"/>
       <c r="F105" s="22"/>
@@ -8410,7 +8755,7 @@
       <c r="AC105" s="14"/>
       <c r="AD105" s="65"/>
     </row>
-    <row r="106" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="116"/>
       <c r="D106" s="2"/>
       <c r="F106" s="22"/>
@@ -8439,7 +8784,7 @@
       <c r="AC106" s="14"/>
       <c r="AD106" s="65"/>
     </row>
-    <row r="107" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="116"/>
       <c r="D107" s="2"/>
       <c r="F107" s="22"/>
@@ -8468,7 +8813,7 @@
       <c r="AC107" s="14"/>
       <c r="AD107" s="65"/>
     </row>
-    <row r="108" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="116"/>
       <c r="D108" s="2"/>
       <c r="F108" s="22"/>
@@ -8497,7 +8842,7 @@
       <c r="AC108" s="14"/>
       <c r="AD108" s="65"/>
     </row>
-    <row r="109" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="116"/>
       <c r="D109" s="2"/>
       <c r="F109" s="22"/>
@@ -8526,7 +8871,7 @@
       <c r="AC109" s="14"/>
       <c r="AD109" s="65"/>
     </row>
-    <row r="110" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="116"/>
       <c r="D110" s="2"/>
       <c r="F110" s="22"/>
@@ -8555,7 +8900,7 @@
       <c r="AC110" s="14"/>
       <c r="AD110" s="65"/>
     </row>
-    <row r="111" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="116"/>
       <c r="D111" s="2"/>
       <c r="F111" s="22"/>
@@ -8584,7 +8929,7 @@
       <c r="AC111" s="14"/>
       <c r="AD111" s="65"/>
     </row>
-    <row r="112" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="116"/>
       <c r="D112" s="2"/>
       <c r="F112" s="22"/>
@@ -8613,7 +8958,7 @@
       <c r="AC112" s="14"/>
       <c r="AD112" s="65"/>
     </row>
-    <row r="113" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="116"/>
       <c r="D113" s="2"/>
       <c r="F113" s="22"/>
@@ -8641,7 +8986,7 @@
       <c r="AB113"/>
       <c r="AC113" s="14"/>
     </row>
-    <row r="114" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="116"/>
       <c r="D114" s="2"/>
       <c r="F114" s="22"/>
@@ -8669,7 +9014,7 @@
       <c r="AB114"/>
       <c r="AC114" s="14"/>
     </row>
-    <row r="115" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="116"/>
       <c r="D115" s="2"/>
       <c r="F115" s="22"/>
@@ -8697,7 +9042,7 @@
       <c r="AB115"/>
       <c r="AC115" s="14"/>
     </row>
-    <row r="116" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="116"/>
       <c r="D116" s="2"/>
       <c r="F116" s="22"/>
@@ -8725,7 +9070,7 @@
       <c r="AB116"/>
       <c r="AC116" s="14"/>
     </row>
-    <row r="117" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="116"/>
       <c r="D117" s="2"/>
       <c r="F117" s="22"/>
@@ -8741,13 +9086,13 @@
       <c r="N117" s="111"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
-      <c r="Q117" s="243" t="s">
+      <c r="Q117" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="R117" s="243"/>
-      <c r="S117" s="243"/>
-      <c r="T117" s="243"/>
-      <c r="U117" s="243"/>
+      <c r="R117" s="249"/>
+      <c r="S117" s="249"/>
+      <c r="T117" s="249"/>
+      <c r="U117" s="249"/>
       <c r="V117" s="2"/>
       <c r="W117" s="43"/>
       <c r="X117" s="71"/>
@@ -8757,7 +9102,7 @@
       <c r="AB117"/>
       <c r="AC117" s="14"/>
     </row>
-    <row r="118" spans="1:29" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="116"/>
       <c r="D118" s="2"/>
       <c r="F118" s="22"/>
@@ -8797,7 +9142,7 @@
       <c r="AB118"/>
       <c r="AC118" s="14"/>
     </row>
-    <row r="119" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="116"/>
       <c r="D119" s="2"/>
       <c r="F119" s="22"/>
@@ -8825,7 +9170,7 @@
       <c r="AB119"/>
       <c r="AC119" s="14"/>
     </row>
-    <row r="120" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="116"/>
       <c r="D120" s="2"/>
       <c r="F120" s="22"/>
@@ -8853,7 +9198,7 @@
       <c r="AB120"/>
       <c r="AC120" s="14"/>
     </row>
-    <row r="121" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A121" s="116"/>
       <c r="D121" s="2"/>
       <c r="F121" s="22"/>
@@ -8862,24 +9207,24 @@
       <c r="I121" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="J121" s="244" t="s">
+      <c r="J121" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="K121" s="244"/>
-      <c r="L121" s="244"/>
-      <c r="M121" s="244"/>
-      <c r="N121" s="245"/>
+      <c r="K121" s="251"/>
+      <c r="L121" s="251"/>
+      <c r="M121" s="251"/>
+      <c r="N121" s="252"/>
       <c r="O121" s="52"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="R121" s="246" t="s">
+      <c r="R121" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="S121" s="246"/>
-      <c r="T121" s="246"/>
-      <c r="U121" s="246"/>
+      <c r="S121" s="253"/>
+      <c r="T121" s="253"/>
+      <c r="U121" s="253"/>
       <c r="V121" s="41"/>
       <c r="W121" s="43"/>
       <c r="X121" s="71"/>
@@ -8889,7 +9234,7 @@
       <c r="AB121"/>
       <c r="AC121" s="14"/>
     </row>
-    <row r="122" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A122" s="116"/>
       <c r="D122" s="2"/>
       <c r="F122" s="22"/>
@@ -8921,7 +9266,7 @@
       <c r="AB122"/>
       <c r="AC122" s="14"/>
     </row>
-    <row r="123" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A123" s="116"/>
       <c r="D123" s="2"/>
       <c r="F123" s="22"/>
@@ -8953,7 +9298,7 @@
       <c r="AB123"/>
       <c r="AC123" s="14"/>
     </row>
-    <row r="124" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A124" s="116"/>
       <c r="D124" s="2"/>
       <c r="F124" s="22"/>
@@ -8983,7 +9328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="23.5" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A125" s="116"/>
       <c r="D125" s="2"/>
       <c r="F125" s="22"/>
@@ -9030,7 +9375,7 @@
       <c r="AA125"/>
       <c r="AB125"/>
     </row>
-    <row r="126" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A126" s="116"/>
       <c r="D126" s="2"/>
       <c r="F126" s="22"/>
@@ -9061,7 +9406,7 @@
       <c r="AA126"/>
       <c r="AB126"/>
     </row>
-    <row r="127" spans="1:29" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A127" s="116"/>
       <c r="D127" s="2"/>
       <c r="F127" s="22"/>
@@ -9092,7 +9437,7 @@
       <c r="AA127"/>
       <c r="AB127"/>
     </row>
-    <row r="128" spans="1:29" ht="26" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:29" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A128" s="116"/>
       <c r="D128" s="2"/>
       <c r="F128" s="22"/>
@@ -9121,7 +9466,7 @@
       <c r="AA128"/>
       <c r="AB128"/>
     </row>
-    <row r="129" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="116"/>
       <c r="D129" s="2"/>
       <c r="F129" s="22"/>
@@ -9160,7 +9505,7 @@
       <c r="AA129"/>
       <c r="AB129"/>
     </row>
-    <row r="130" spans="1:34" ht="21" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:34" ht="21" x14ac:dyDescent="0.35">
       <c r="A130" s="116"/>
       <c r="D130" s="2"/>
       <c r="F130" s="22"/>
@@ -9187,7 +9532,7 @@
       <c r="AA130"/>
       <c r="AB130"/>
     </row>
-    <row r="131" spans="1:34" ht="26" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:34" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A131" s="116"/>
       <c r="D131" s="2"/>
       <c r="F131" s="55"/>
@@ -9219,7 +9564,7 @@
       <c r="AA131"/>
       <c r="AB131"/>
     </row>
-    <row r="132" spans="1:34" ht="21" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:34" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="116"/>
       <c r="D132" s="2"/>
       <c r="F132" s="11"/>
@@ -9232,7 +9577,7 @@
       <c r="AA132"/>
       <c r="AB132"/>
     </row>
-    <row r="133" spans="1:34" ht="31" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:34" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A133" s="116"/>
       <c r="D133" s="2"/>
       <c r="F133" s="83" t="s">
@@ -9263,7 +9608,7 @@
       <c r="AA133"/>
       <c r="AB133" s="14"/>
     </row>
-    <row r="134" spans="1:34" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:34" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A134" s="116"/>
       <c r="D134" s="2"/>
       <c r="F134" s="22"/>
@@ -9292,7 +9637,7 @@
       <c r="AG134"/>
       <c r="AH134"/>
     </row>
-    <row r="135" spans="1:34" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A135" s="116"/>
       <c r="D135" s="2"/>
       <c r="F135" s="184" t="s">
@@ -9320,7 +9665,7 @@
       <c r="AG135"/>
       <c r="AH135"/>
     </row>
-    <row r="136" spans="1:34" ht="26" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:34" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A136" s="116"/>
       <c r="D136" s="2"/>
       <c r="F136" s="22"/>
@@ -9345,7 +9690,7 @@
       <c r="AG136"/>
       <c r="AH136"/>
     </row>
-    <row r="137" spans="1:34" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A137" s="116"/>
       <c r="D137" s="2"/>
       <c r="F137" s="184" t="s">
@@ -9373,7 +9718,7 @@
       <c r="AG137"/>
       <c r="AH137"/>
     </row>
-    <row r="138" spans="1:34" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="116"/>
       <c r="F138" s="199" t="s">
         <v>94</v>
@@ -9403,7 +9748,7 @@
       <c r="AG138"/>
       <c r="AH138"/>
     </row>
-    <row r="139" spans="1:34" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="116"/>
       <c r="F139" s="199" t="s">
         <v>95</v>
@@ -9433,7 +9778,7 @@
       <c r="AA139"/>
       <c r="AB139" s="61"/>
     </row>
-    <row r="140" spans="1:34" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A140" s="116"/>
       <c r="F140" s="200" t="s">
         <v>96</v>
@@ -9466,7 +9811,7 @@
       <c r="AA140"/>
       <c r="AB140" s="61"/>
     </row>
-    <row r="141" spans="1:34" ht="54" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:34" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A141" s="116"/>
       <c r="F141" s="208" t="s">
         <v>97</v>
@@ -9498,7 +9843,7 @@
       <c r="AA141"/>
       <c r="AB141" s="61"/>
     </row>
-    <row r="142" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="116"/>
       <c r="F142" s="79"/>
       <c r="G142" s="12"/>
@@ -9527,7 +9872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:34" s="190" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:34" s="190" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="230"/>
       <c r="F143" s="201" t="s">
         <v>87</v>
@@ -9562,7 +9907,7 @@
       <c r="AG143" s="197"/>
       <c r="AH143" s="197"/>
     </row>
-    <row r="144" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="116"/>
       <c r="F144" s="203" t="s">
         <v>120</v>
@@ -9594,7 +9939,7 @@
       <c r="AA144"/>
       <c r="AB144" s="61"/>
     </row>
-    <row r="145" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A145" s="116"/>
       <c r="F145" s="202"/>
       <c r="G145" s="12" t="s">
@@ -9624,7 +9969,7 @@
       <c r="AA145"/>
       <c r="AB145" s="61"/>
     </row>
-    <row r="146" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A146" s="116"/>
       <c r="F146" s="205" t="s">
         <v>90</v>
@@ -9652,7 +9997,7 @@
       <c r="AA146"/>
       <c r="AB146" s="61"/>
     </row>
-    <row r="147" spans="1:28" ht="52" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:28" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A147" s="116"/>
       <c r="F147" s="206" t="s">
         <v>91</v>
@@ -9684,15 +10029,15 @@
       <c r="AA147"/>
       <c r="AB147" s="61"/>
     </row>
-    <row r="148" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A148" s="116"/>
-      <c r="F148" s="256"/>
-      <c r="G148" s="257"/>
-      <c r="H148" s="257"/>
-      <c r="I148" s="257"/>
-      <c r="J148" s="257"/>
-      <c r="K148" s="257"/>
-      <c r="L148" s="257"/>
+      <c r="F148" s="247"/>
+      <c r="G148" s="248"/>
+      <c r="H148" s="248"/>
+      <c r="I148" s="248"/>
+      <c r="J148" s="248"/>
+      <c r="K148" s="248"/>
+      <c r="L148" s="248"/>
       <c r="M148" s="12"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -9710,17 +10055,17 @@
       <c r="AA148"/>
       <c r="AB148" s="61"/>
     </row>
-    <row r="149" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A149" s="116"/>
-      <c r="F149" s="256" t="s">
+      <c r="F149" s="247" t="s">
         <v>92</v>
       </c>
-      <c r="G149" s="257"/>
-      <c r="H149" s="257"/>
-      <c r="I149" s="257"/>
-      <c r="J149" s="257"/>
-      <c r="K149" s="257"/>
-      <c r="L149" s="257"/>
+      <c r="G149" s="248"/>
+      <c r="H149" s="248"/>
+      <c r="I149" s="248"/>
+      <c r="J149" s="248"/>
+      <c r="K149" s="248"/>
+      <c r="L149" s="248"/>
       <c r="M149" s="12"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
@@ -9738,7 +10083,7 @@
       <c r="AA149"/>
       <c r="AB149" s="61"/>
     </row>
-    <row r="150" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A150" s="116"/>
       <c r="F150" s="207" t="s">
         <v>98</v>
@@ -9770,7 +10115,7 @@
       <c r="AA150"/>
       <c r="AB150" s="61"/>
     </row>
-    <row r="151" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A151" s="116"/>
       <c r="F151" s="22"/>
       <c r="G151" s="12"/>
@@ -9796,7 +10141,7 @@
       <c r="AA151"/>
       <c r="AB151" s="61"/>
     </row>
-    <row r="152" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A152" s="116"/>
       <c r="F152" s="184" t="s">
         <v>100</v>
@@ -9826,7 +10171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:28" ht="52" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:28" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A153" s="116"/>
       <c r="F153" s="202" t="s">
         <v>131</v>
@@ -9858,7 +10203,7 @@
       <c r="AA153"/>
       <c r="AB153" s="61"/>
     </row>
-    <row r="154" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A154" s="116"/>
       <c r="F154" s="79"/>
       <c r="H154" s="12"/>
@@ -9883,7 +10228,7 @@
       <c r="AA154"/>
       <c r="AB154" s="61"/>
     </row>
-    <row r="155" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A155" s="116"/>
       <c r="F155" s="184" t="s">
         <v>101</v>
@@ -9913,7 +10258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:28" ht="52" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:28" ht="52.5" x14ac:dyDescent="0.4">
       <c r="A156" s="116"/>
       <c r="F156" s="202" t="s">
         <v>132</v>
@@ -9947,7 +10292,7 @@
       <c r="AA156"/>
       <c r="AB156" s="61"/>
     </row>
-    <row r="157" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A157" s="116"/>
       <c r="F157" s="79"/>
       <c r="G157" s="186"/>
@@ -9977,15 +10322,15 @@
       <c r="AA157"/>
       <c r="AB157" s="61"/>
     </row>
-    <row r="158" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A158" s="116"/>
-      <c r="F158" s="250" t="s">
+      <c r="F158" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="G158" s="251"/>
-      <c r="H158" s="251"/>
-      <c r="I158" s="251"/>
-      <c r="J158" s="251"/>
+      <c r="G158" s="260"/>
+      <c r="H158" s="260"/>
+      <c r="I158" s="260"/>
+      <c r="J158" s="260"/>
       <c r="K158" s="12"/>
       <c r="L158" s="97"/>
       <c r="M158" s="97"/>
@@ -10005,7 +10350,7 @@
       <c r="AA158" s="13"/>
       <c r="AB158" s="61"/>
     </row>
-    <row r="159" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A159" s="116"/>
       <c r="F159" s="79" t="s">
         <v>104</v>
@@ -10038,7 +10383,7 @@
       <c r="AA159" s="13"/>
       <c r="AB159" s="60"/>
     </row>
-    <row r="160" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A160" s="116"/>
       <c r="F160" s="79" t="s">
         <v>105</v>
@@ -10070,7 +10415,7 @@
       <c r="AA160" s="81"/>
       <c r="AB160" s="61"/>
     </row>
-    <row r="161" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A161" s="116"/>
       <c r="F161" s="79"/>
       <c r="G161" s="185"/>
@@ -10096,7 +10441,7 @@
       <c r="AA161" s="81"/>
       <c r="AB161" s="61"/>
     </row>
-    <row r="162" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A162" s="116"/>
       <c r="F162" s="184" t="s">
         <v>106</v>
@@ -10104,7 +10449,7 @@
       <c r="G162" s="209" t="s">
         <v>109</v>
       </c>
-      <c r="H162" s="252" t="s">
+      <c r="H162" s="261" t="s">
         <v>108</v>
       </c>
       <c r="I162" s="176"/>
@@ -10130,7 +10475,7 @@
       <c r="AA162" s="81"/>
       <c r="AB162" s="61"/>
     </row>
-    <row r="163" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A163" s="116"/>
       <c r="F163" s="79" t="s">
         <v>107</v>
@@ -10138,7 +10483,7 @@
       <c r="G163" s="209" t="s">
         <v>111</v>
       </c>
-      <c r="H163" s="252"/>
+      <c r="H163" s="261"/>
       <c r="I163" s="176"/>
       <c r="J163" s="12"/>
       <c r="K163" s="12"/>
@@ -10162,7 +10507,7 @@
       <c r="AA163" s="81"/>
       <c r="AB163" s="61"/>
     </row>
-    <row r="164" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A164" s="116"/>
       <c r="F164" s="79"/>
       <c r="G164" s="185"/>
@@ -10190,7 +10535,7 @@
       <c r="AA164" s="81"/>
       <c r="AB164" s="61"/>
     </row>
-    <row r="165" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A165" s="116"/>
       <c r="F165" s="184" t="s">
         <v>113</v>
@@ -10218,7 +10563,7 @@
       <c r="AA165" s="81"/>
       <c r="AB165" s="61"/>
     </row>
-    <row r="166" spans="1:28" ht="57" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:28" ht="57" x14ac:dyDescent="0.4">
       <c r="A166" s="116"/>
       <c r="F166" s="212"/>
       <c r="G166" s="209" t="s">
@@ -10250,7 +10595,7 @@
       <c r="AA166" s="81"/>
       <c r="AB166" s="61"/>
     </row>
-    <row r="167" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A167" s="116"/>
       <c r="F167" s="79"/>
       <c r="G167" s="185"/>
@@ -10276,7 +10621,7 @@
       <c r="AA167" s="81"/>
       <c r="AB167" s="61"/>
     </row>
-    <row r="168" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A168" s="116"/>
       <c r="F168" s="184" t="s">
         <v>116</v>
@@ -10304,7 +10649,7 @@
       <c r="AA168" s="81"/>
       <c r="AB168" s="61"/>
     </row>
-    <row r="169" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A169" s="116"/>
       <c r="F169" s="79" t="s">
         <v>117</v>
@@ -10336,7 +10681,7 @@
       <c r="AA169" s="81"/>
       <c r="AB169" s="61"/>
     </row>
-    <row r="170" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A170" s="116"/>
       <c r="F170" s="79" t="s">
         <v>118</v>
@@ -10368,7 +10713,7 @@
       <c r="AA170" s="81"/>
       <c r="AB170" s="61"/>
     </row>
-    <row r="171" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A171" s="116"/>
       <c r="F171" s="79" t="s">
         <v>119</v>
@@ -10400,7 +10745,7 @@
       <c r="AA171" s="59"/>
       <c r="AB171" s="61"/>
     </row>
-    <row r="172" spans="1:28" ht="28.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:28" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A172" s="116"/>
       <c r="F172" s="79"/>
       <c r="G172" s="209"/>
@@ -10426,7 +10771,7 @@
       <c r="AA172" s="59"/>
       <c r="AB172" s="61"/>
     </row>
-    <row r="173" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A173" s="116"/>
       <c r="F173" s="187"/>
       <c r="G173" s="188"/>
@@ -10456,7 +10801,7 @@
       <c r="AA173" s="59"/>
       <c r="AB173" s="61"/>
     </row>
-    <row r="174" spans="1:28" ht="26" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:28" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A174" s="116"/>
       <c r="G174" s="94"/>
       <c r="H174" s="39"/>
@@ -10481,7 +10826,7 @@
       <c r="AA174" s="60"/>
       <c r="AB174" s="14"/>
     </row>
-    <row r="175" spans="1:28" ht="31" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:28" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A175" s="116"/>
       <c r="F175" s="2"/>
       <c r="G175" s="94"/>
@@ -10500,15 +10845,15 @@
       <c r="U175" s="43"/>
       <c r="V175" s="236"/>
       <c r="W175" s="237"/>
-      <c r="X175" s="247" t="s">
+      <c r="X175" s="256" t="s">
         <v>78</v>
       </c>
-      <c r="Y175" s="248"/>
-      <c r="Z175" s="249"/>
+      <c r="Y175" s="257"/>
+      <c r="Z175" s="258"/>
       <c r="AA175" s="60"/>
       <c r="AB175" s="14"/>
     </row>
-    <row r="176" spans="1:28" ht="28.5" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A176" s="116"/>
       <c r="F176" s="2"/>
       <c r="G176" s="94"/>
@@ -10534,7 +10879,7 @@
       <c r="AA176" s="61"/>
       <c r="AB176" s="2"/>
     </row>
-    <row r="177" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A177" s="116"/>
       <c r="F177" s="2"/>
       <c r="G177" s="94"/>
@@ -10563,7 +10908,7 @@
       </c>
       <c r="AA177" s="60"/>
     </row>
-    <row r="178" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A178" s="116"/>
       <c r="F178" s="2"/>
       <c r="G178" s="94"/>
@@ -10592,7 +10937,7 @@
       </c>
       <c r="AA178" s="61"/>
     </row>
-    <row r="179" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A179" s="116"/>
       <c r="F179" s="2"/>
       <c r="G179" s="94"/>
@@ -10621,7 +10966,7 @@
       </c>
       <c r="AA179" s="61"/>
     </row>
-    <row r="180" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A180" s="116"/>
       <c r="F180" s="2"/>
       <c r="G180" s="94"/>
@@ -10650,7 +10995,7 @@
       </c>
       <c r="AA180" s="61"/>
     </row>
-    <row r="181" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A181" s="116"/>
       <c r="F181" s="2"/>
       <c r="G181" s="94"/>
@@ -10679,7 +11024,7 @@
       </c>
       <c r="AA181" s="61"/>
     </row>
-    <row r="182" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A182" s="116"/>
       <c r="F182" s="2"/>
       <c r="G182" s="94"/>
@@ -10708,7 +11053,7 @@
       </c>
       <c r="AA182" s="61"/>
     </row>
-    <row r="183" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A183" s="116"/>
       <c r="F183" s="2"/>
       <c r="G183" s="94"/>
@@ -10737,7 +11082,7 @@
       </c>
       <c r="AA183" s="60"/>
     </row>
-    <row r="184" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A184" s="116"/>
       <c r="F184" s="2"/>
       <c r="G184" s="94"/>
@@ -10762,7 +11107,7 @@
       <c r="Z184" s="80"/>
       <c r="AA184" s="61"/>
     </row>
-    <row r="185" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A185" s="116"/>
       <c r="F185" s="2"/>
       <c r="G185" s="94"/>
@@ -10791,7 +11136,7 @@
       </c>
       <c r="AA185" s="61"/>
     </row>
-    <row r="186" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A186" s="116"/>
       <c r="F186" s="2"/>
       <c r="G186" s="94"/>
@@ -10820,7 +11165,7 @@
       </c>
       <c r="AA186" s="61"/>
     </row>
-    <row r="187" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A187" s="116"/>
       <c r="F187" s="2"/>
       <c r="G187" s="95"/>
@@ -10849,7 +11194,7 @@
       </c>
       <c r="AA187" s="13"/>
     </row>
-    <row r="188" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A188" s="116"/>
       <c r="F188" s="2"/>
       <c r="G188" s="13"/>
@@ -10877,7 +11222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A189" s="116"/>
       <c r="F189" s="2"/>
       <c r="G189" s="13"/>
@@ -10905,7 +11250,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A190" s="116"/>
       <c r="F190" s="2"/>
       <c r="G190" s="13"/>
@@ -10933,7 +11278,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A191" s="116"/>
       <c r="F191" s="2"/>
       <c r="G191" s="13"/>
@@ -10961,7 +11306,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="26" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:29" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A192" s="116"/>
       <c r="F192" s="2"/>
       <c r="G192" s="13"/>
@@ -10989,7 +11334,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="193" spans="1:26" ht="26" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A193" s="116"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -11012,7 +11357,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="8"/>
     </row>
-    <row r="194" spans="1:26" ht="26" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A194" s="116"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -11040,7 +11385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="116"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -11063,7 +11408,7 @@
       <c r="Y195" s="227"/>
       <c r="Z195" s="228"/>
     </row>
-    <row r="196" spans="1:26" ht="31.5" thickTop="1" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:26" ht="32.25" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A196" s="116"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -11091,38 +11436,41 @@
         <v>40</v>
       </c>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="116"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="116"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="116"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="116"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="116"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="116"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="116"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="116"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="116"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="X175:Z175"/>
+    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="H162:H163"/>
     <mergeCell ref="X8:Z8"/>
     <mergeCell ref="F148:L148"/>
     <mergeCell ref="F149:L149"/>
@@ -11139,9 +11487,6 @@
     <mergeCell ref="Q117:U117"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="R121:U121"/>
-    <mergeCell ref="X175:Z175"/>
-    <mergeCell ref="F158:J158"/>
-    <mergeCell ref="H162:H163"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
